--- a/data/quotes/ypfd.xlsx
+++ b/data/quotes/ypfd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H574"/>
+  <dimension ref="A1:H585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2986,13 +2986,13 @@
         <v>905.6</v>
       </c>
       <c r="F91" t="n">
-        <v>57144232.95</v>
+        <v>57441218.95</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="H91" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="92">
@@ -3014,13 +3014,13 @@
         <v>933</v>
       </c>
       <c r="F92" t="n">
-        <v>90309554.95</v>
+        <v>109329325.7</v>
       </c>
       <c r="G92" t="n">
         <v>5</v>
       </c>
       <c r="H92" t="n">
-        <v>1043</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="93">
@@ -16517,6 +16517,314 @@
       </c>
       <c r="H574" t="n">
         <v>4925</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>25074.8</v>
+      </c>
+      <c r="C575" t="n">
+        <v>24599</v>
+      </c>
+      <c r="D575" t="n">
+        <v>25180</v>
+      </c>
+      <c r="E575" t="n">
+        <v>24206</v>
+      </c>
+      <c r="F575" t="n">
+        <v>5374027820.1</v>
+      </c>
+      <c r="G575" t="n">
+        <v>216554</v>
+      </c>
+      <c r="H575" t="n">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>26287</v>
+      </c>
+      <c r="C576" t="n">
+        <v>25165</v>
+      </c>
+      <c r="D576" t="n">
+        <v>26400</v>
+      </c>
+      <c r="E576" t="n">
+        <v>25165</v>
+      </c>
+      <c r="F576" t="n">
+        <v>6915901084.35</v>
+      </c>
+      <c r="G576" t="n">
+        <v>264300</v>
+      </c>
+      <c r="H576" t="n">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>26060</v>
+      </c>
+      <c r="C577" t="n">
+        <v>26215</v>
+      </c>
+      <c r="D577" t="n">
+        <v>26352.15</v>
+      </c>
+      <c r="E577" t="n">
+        <v>25793</v>
+      </c>
+      <c r="F577" t="n">
+        <v>6186295653.05</v>
+      </c>
+      <c r="G577" t="n">
+        <v>237033</v>
+      </c>
+      <c r="H577" t="n">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>25900</v>
+      </c>
+      <c r="C578" t="n">
+        <v>26000</v>
+      </c>
+      <c r="D578" t="n">
+        <v>26269.95</v>
+      </c>
+      <c r="E578" t="n">
+        <v>25810.25</v>
+      </c>
+      <c r="F578" t="n">
+        <v>6320768245.3</v>
+      </c>
+      <c r="G578" t="n">
+        <v>242778</v>
+      </c>
+      <c r="H578" t="n">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>27200</v>
+      </c>
+      <c r="C579" t="n">
+        <v>25900</v>
+      </c>
+      <c r="D579" t="n">
+        <v>27200</v>
+      </c>
+      <c r="E579" t="n">
+        <v>25672.85</v>
+      </c>
+      <c r="F579" t="n">
+        <v>6509051725.95</v>
+      </c>
+      <c r="G579" t="n">
+        <v>245452</v>
+      </c>
+      <c r="H579" t="n">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>28218.45</v>
+      </c>
+      <c r="C580" t="n">
+        <v>27141.5</v>
+      </c>
+      <c r="D580" t="n">
+        <v>28352.35</v>
+      </c>
+      <c r="E580" t="n">
+        <v>27100</v>
+      </c>
+      <c r="F580" t="n">
+        <v>9171119839.799999</v>
+      </c>
+      <c r="G580" t="n">
+        <v>331953</v>
+      </c>
+      <c r="H580" t="n">
+        <v>5755</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>27408.2</v>
+      </c>
+      <c r="C581" t="n">
+        <v>28150</v>
+      </c>
+      <c r="D581" t="n">
+        <v>28218.45</v>
+      </c>
+      <c r="E581" t="n">
+        <v>27285.95</v>
+      </c>
+      <c r="F581" t="n">
+        <v>7986168929.4</v>
+      </c>
+      <c r="G581" t="n">
+        <v>288649</v>
+      </c>
+      <c r="H581" t="n">
+        <v>7024</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>27000</v>
+      </c>
+      <c r="C582" t="n">
+        <v>27411</v>
+      </c>
+      <c r="D582" t="n">
+        <v>28150</v>
+      </c>
+      <c r="E582" t="n">
+        <v>26845.55</v>
+      </c>
+      <c r="F582" t="n">
+        <v>5339281026</v>
+      </c>
+      <c r="G582" t="n">
+        <v>194893</v>
+      </c>
+      <c r="H582" t="n">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>26120</v>
+      </c>
+      <c r="C583" t="n">
+        <v>27100</v>
+      </c>
+      <c r="D583" t="n">
+        <v>27385.85</v>
+      </c>
+      <c r="E583" t="n">
+        <v>25897.75</v>
+      </c>
+      <c r="F583" t="n">
+        <v>8617342873.4</v>
+      </c>
+      <c r="G583" t="n">
+        <v>324692</v>
+      </c>
+      <c r="H583" t="n">
+        <v>6297</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>26840</v>
+      </c>
+      <c r="C584" t="n">
+        <v>26500</v>
+      </c>
+      <c r="D584" t="n">
+        <v>26990</v>
+      </c>
+      <c r="E584" t="n">
+        <v>26487.05</v>
+      </c>
+      <c r="F584" t="n">
+        <v>580551257.95</v>
+      </c>
+      <c r="G584" t="n">
+        <v>4</v>
+      </c>
+      <c r="H584" t="n">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>27669</v>
+      </c>
+      <c r="C585" t="n">
+        <v>27420.4</v>
+      </c>
+      <c r="D585" t="n">
+        <v>27700</v>
+      </c>
+      <c r="E585" t="n">
+        <v>26655</v>
+      </c>
+      <c r="F585" t="n">
+        <v>9398066727.5</v>
+      </c>
+      <c r="G585" t="n">
+        <v>344887</v>
+      </c>
+      <c r="H585" t="n">
+        <v>5556</v>
       </c>
     </row>
   </sheetData>

--- a/data/quotes/ypfd.xlsx
+++ b/data/quotes/ypfd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H585"/>
+  <dimension ref="A1:H590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2986,13 +2986,13 @@
         <v>905.6</v>
       </c>
       <c r="F91" t="n">
-        <v>57441218.95</v>
+        <v>57144232.95</v>
       </c>
       <c r="G91" t="n">
         <v>326</v>
       </c>
       <c r="H91" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="92">
@@ -3014,13 +3014,13 @@
         <v>933</v>
       </c>
       <c r="F92" t="n">
-        <v>109329325.7</v>
+        <v>105460251.95</v>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="H92" t="n">
-        <v>1326</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="93">
@@ -16778,25 +16778,25 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>26840</v>
+        <v>27380</v>
       </c>
       <c r="C584" t="n">
         <v>26500</v>
       </c>
       <c r="D584" t="n">
-        <v>26990</v>
+        <v>27450</v>
       </c>
       <c r="E584" t="n">
         <v>26487.05</v>
       </c>
       <c r="F584" t="n">
-        <v>580551257.95</v>
+        <v>3319949177.1</v>
       </c>
       <c r="G584" t="n">
-        <v>4</v>
+        <v>122410</v>
       </c>
       <c r="H584" t="n">
-        <v>1384</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="585">
@@ -16825,6 +16825,146 @@
       </c>
       <c r="H585" t="n">
         <v>5556</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>27290</v>
+      </c>
+      <c r="C586" t="n">
+        <v>27601</v>
+      </c>
+      <c r="D586" t="n">
+        <v>27810</v>
+      </c>
+      <c r="E586" t="n">
+        <v>26810</v>
+      </c>
+      <c r="F586" t="n">
+        <v>6950046892</v>
+      </c>
+      <c r="G586" t="n">
+        <v>255707</v>
+      </c>
+      <c r="H586" t="n">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>29248</v>
+      </c>
+      <c r="C587" t="n">
+        <v>27619</v>
+      </c>
+      <c r="D587" t="n">
+        <v>29317</v>
+      </c>
+      <c r="E587" t="n">
+        <v>27619</v>
+      </c>
+      <c r="F587" t="n">
+        <v>7739473813.8</v>
+      </c>
+      <c r="G587" t="n">
+        <v>270208</v>
+      </c>
+      <c r="H587" t="n">
+        <v>6733</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>29055</v>
+      </c>
+      <c r="C588" t="n">
+        <v>29250</v>
+      </c>
+      <c r="D588" t="n">
+        <v>29250</v>
+      </c>
+      <c r="E588" t="n">
+        <v>28000</v>
+      </c>
+      <c r="F588" t="n">
+        <v>10633833441</v>
+      </c>
+      <c r="G588" t="n">
+        <v>368237</v>
+      </c>
+      <c r="H588" t="n">
+        <v>6692</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>28480</v>
+      </c>
+      <c r="C589" t="n">
+        <v>29000</v>
+      </c>
+      <c r="D589" t="n">
+        <v>29381.75</v>
+      </c>
+      <c r="E589" t="n">
+        <v>28300</v>
+      </c>
+      <c r="F589" t="n">
+        <v>3197527878.6</v>
+      </c>
+      <c r="G589" t="n">
+        <v>9</v>
+      </c>
+      <c r="H589" t="n">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>26739.25</v>
+      </c>
+      <c r="C590" t="n">
+        <v>27680</v>
+      </c>
+      <c r="D590" t="n">
+        <v>27850</v>
+      </c>
+      <c r="E590" t="n">
+        <v>26597.25</v>
+      </c>
+      <c r="F590" t="n">
+        <v>20875878603.75</v>
+      </c>
+      <c r="G590" t="n">
+        <v>772918</v>
+      </c>
+      <c r="H590" t="n">
+        <v>13330</v>
       </c>
     </row>
   </sheetData>

--- a/data/quotes/ypfd.xlsx
+++ b/data/quotes/ypfd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H590"/>
+  <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3011,16 +3011,16 @@
         <v>954</v>
       </c>
       <c r="E92" t="n">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F92" t="n">
-        <v>105460251.95</v>
+        <v>132336979.15</v>
       </c>
       <c r="G92" t="n">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="H92" t="n">
-        <v>1259</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="93">
@@ -16918,7 +16918,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>28480</v>
+        <v>28761.9</v>
       </c>
       <c r="C589" t="n">
         <v>29000</v>
@@ -16930,13 +16930,13 @@
         <v>28300</v>
       </c>
       <c r="F589" t="n">
-        <v>3197527878.6</v>
+        <v>8329401968.3</v>
       </c>
       <c r="G589" t="n">
-        <v>9</v>
+        <v>289461</v>
       </c>
       <c r="H589" t="n">
-        <v>3401</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="590">
@@ -16965,6 +16965,174 @@
       </c>
       <c r="H590" t="n">
         <v>13330</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>27156</v>
+      </c>
+      <c r="C591" t="n">
+        <v>26825</v>
+      </c>
+      <c r="D591" t="n">
+        <v>27600</v>
+      </c>
+      <c r="E591" t="n">
+        <v>25500</v>
+      </c>
+      <c r="F591" t="n">
+        <v>8813831230.5</v>
+      </c>
+      <c r="G591" t="n">
+        <v>327809</v>
+      </c>
+      <c r="H591" t="n">
+        <v>7481</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>26220</v>
+      </c>
+      <c r="C592" t="n">
+        <v>26990.4</v>
+      </c>
+      <c r="D592" t="n">
+        <v>26990.4</v>
+      </c>
+      <c r="E592" t="n">
+        <v>26100</v>
+      </c>
+      <c r="F592" t="n">
+        <v>11439995034.75</v>
+      </c>
+      <c r="G592" t="n">
+        <v>432059</v>
+      </c>
+      <c r="H592" t="n">
+        <v>7528</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>26320</v>
+      </c>
+      <c r="C593" t="n">
+        <v>26999</v>
+      </c>
+      <c r="D593" t="n">
+        <v>26999</v>
+      </c>
+      <c r="E593" t="n">
+        <v>26230.05</v>
+      </c>
+      <c r="F593" t="n">
+        <v>6171754734.6</v>
+      </c>
+      <c r="G593" t="n">
+        <v>232953</v>
+      </c>
+      <c r="H593" t="n">
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>26740</v>
+      </c>
+      <c r="C594" t="n">
+        <v>26300</v>
+      </c>
+      <c r="D594" t="n">
+        <v>26850</v>
+      </c>
+      <c r="E594" t="n">
+        <v>26160</v>
+      </c>
+      <c r="F594" t="n">
+        <v>2300018463.05</v>
+      </c>
+      <c r="G594" t="n">
+        <v>1</v>
+      </c>
+      <c r="H594" t="n">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>26837.1</v>
+      </c>
+      <c r="C595" t="n">
+        <v>27299</v>
+      </c>
+      <c r="D595" t="n">
+        <v>27299</v>
+      </c>
+      <c r="E595" t="n">
+        <v>26600.05</v>
+      </c>
+      <c r="F595" t="n">
+        <v>5723782932.05</v>
+      </c>
+      <c r="G595" t="n">
+        <v>73</v>
+      </c>
+      <c r="H595" t="n">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>27000</v>
+      </c>
+      <c r="C596" t="n">
+        <v>26900</v>
+      </c>
+      <c r="D596" t="n">
+        <v>27900</v>
+      </c>
+      <c r="E596" t="n">
+        <v>26900</v>
+      </c>
+      <c r="F596" t="n">
+        <v>8141774990.9</v>
+      </c>
+      <c r="G596" t="n">
+        <v>297562</v>
+      </c>
+      <c r="H596" t="n">
+        <v>6148</v>
       </c>
     </row>
   </sheetData>
